--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puis\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puis\uploads\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,15 +17,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$6:$D$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$5:$D$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>YAYASAN PENDIDIKAN AGUNG PODOMORO</t>
   </si>
@@ -45,21 +45,6 @@
     <t>TAGIHAN</t>
   </si>
   <si>
-    <t>TOTAL TAGIHAN</t>
-  </si>
-  <si>
-    <t>TITIPAN</t>
-  </si>
-  <si>
-    <t>PIUTANG</t>
-  </si>
-  <si>
-    <t>JUMLAH HARI</t>
-  </si>
-  <si>
-    <t>AGING PIUTANG</t>
-  </si>
-  <si>
     <t>Keterangan</t>
   </si>
   <si>
@@ -75,33 +60,12 @@
     <t>SKS</t>
   </si>
   <si>
-    <t>BELUM JATUH TEMPO</t>
-  </si>
-  <si>
-    <t>1-30 HARI</t>
-  </si>
-  <si>
-    <t>&gt;30 HARI</t>
-  </si>
-  <si>
-    <t>&gt;60 HARI</t>
-  </si>
-  <si>
-    <t>&gt; 90 HARI</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>TOTAL PENERIMAAN</t>
-  </si>
-  <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>WINNIE SAVIRA</t>
   </si>
   <si>
@@ -114,7 +78,7 @@
     <t>REKAP PENERIMAAN &amp; AGING 2016/2017 Gasal (SEMESTER 2)</t>
   </si>
   <si>
-    <t>Tanggal 01 September 2015 S/D 31 Maret 2018</t>
+    <t>Ketarangan</t>
   </si>
 </sst>
 </file>
@@ -165,21 +129,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -243,6 +201,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -252,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -266,6 +261,27 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,25 +291,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,67 +325,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -677,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -690,374 +661,197 @@
     <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19">
+        <v>12170001</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20">
+        <v>8000000</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="7">
+        <v>5985000</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="16" t="s">
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12170002</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="20">
+        <v>8000000</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="7">
+        <v>5985000</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="26">
-        <v>12170001</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="27">
-        <v>8000000</v>
-      </c>
-      <c r="H8" s="28">
-        <v>5985000</v>
-      </c>
-      <c r="I8" s="29">
-        <f>SUM(E8:H8)</f>
-        <v>13985000</v>
-      </c>
-      <c r="J8" s="27">
-        <v>13985000</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="29">
-        <f>I8-J8</f>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="10">
+        <f t="shared" ref="E9:I9" si="0">SUM(E7:E8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="30">
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="31">
-        <f>IF(M8&lt;=0,L8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="31">
-        <f>IF(AND(M8&gt;=1,M8&lt;=30),L8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
-        <f>IF(AND(M8&gt;30,M8&lt;=60),L8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31">
-        <f>IF(AND(M8&gt;60,M8&lt;=90),L8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="31">
-        <f>IF(M8&gt;90,L8,)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="32"/>
-    </row>
-    <row r="9" spans="1:19" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>2</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="26">
-        <v>12170002</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27">
-        <v>8000000</v>
-      </c>
-      <c r="H9" s="28">
-        <v>5985000</v>
-      </c>
-      <c r="I9" s="29">
-        <f t="shared" ref="I9" si="0">SUM(E9:H9)</f>
-        <v>13985000</v>
-      </c>
-      <c r="J9" s="27">
-        <v>13985000</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="29">
-        <f t="shared" ref="L9" si="1">I9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>0</v>
-      </c>
-      <c r="N9" s="31">
-        <f t="shared" ref="N9" si="2">IF(M9&lt;=0,L9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="31">
-        <f t="shared" ref="O9" si="3">IF(AND(M9&gt;=1,M9&lt;=30),L9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
-        <f t="shared" ref="P9" si="4">IF(AND(M9&gt;30,M9&lt;=60),L9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="31">
-        <f t="shared" ref="Q9" si="5">IF(AND(M9&gt;60,M9&lt;=90),L9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
-        <f t="shared" ref="R9" si="6">IF(M9&gt;90,L9,)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35">
-        <f t="shared" ref="E10:L10" si="7">SUM(E8:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" si="7"/>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
-      <c r="H10" s="35">
-        <f t="shared" si="7"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
         <v>11970000</v>
       </c>
-      <c r="I10" s="35">
-        <f t="shared" si="7"/>
-        <v>27970000</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="7"/>
-        <v>27970000</v>
-      </c>
-      <c r="K10" s="35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="35">
-        <f>SUM(N8:N9)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="35">
-        <f>SUM(O8:O9)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="35">
-        <f>SUM(P8:P9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35">
-        <f>SUM(Q8:Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="35">
-        <f>SUM(R8:R9)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="37"/>
-    </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
   </sheetData>
   <sortState ref="B8:S202">
     <sortCondition ref="D8:D202"/>
     <sortCondition ref="C8:C202"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:R6"/>
+  <mergeCells count="8">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0" footer="0"/>

--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>YAYASAN PENDIDIKAN AGUNG PODOMORO</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>SKS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
   <si>
     <t>NIM</t>
@@ -239,15 +236,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -276,30 +272,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,21 +293,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,13 +315,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,13 +642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
+      <c r="A2" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,74 +661,74 @@
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="24" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="15" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13">
+        <v>12170001</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="19">
-        <v>12170001</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="20">
+      <c r="G7" s="14">
         <v>8000000</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="7">
         <v>5985000</v>
       </c>
@@ -765,88 +739,34 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13">
         <v>12170002</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="20">
+      <c r="G8" s="14">
         <v>8000000</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="7">
         <v>5985000</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="10">
-        <f t="shared" ref="E9:I9" si="0">SUM(E7:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>16000000</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>11970000</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
     </row>
   </sheetData>
   <sortState ref="B8:S202">
     <sortCondition ref="D8:D202"/>
     <sortCondition ref="C8:C202"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="6">
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>

--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -63,9 +63,6 @@
     <t>NIM</t>
   </si>
   <si>
-    <t>WINNIE SAVIRA</t>
-  </si>
-  <si>
     <t>Akuntansi</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Ketarangan</t>
+  </si>
+  <si>
+    <t>WINNIE SAVIRA1</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>10</v>
@@ -715,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13">
         <v>12170001</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
@@ -740,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="13">
         <v>12170002</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>

--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$5:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$5:$D$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>YAYASAN PENDIDIKAN AGUNG PODOMORO</t>
   </si>
@@ -63,27 +63,17 @@
     <t>NIM</t>
   </si>
   <si>
-    <t>Akuntansi</t>
-  </si>
-  <si>
-    <t>LAURA SHARON</t>
-  </si>
-  <si>
     <t>REKAP PENERIMAAN &amp; AGING 2016/2017 Gasal (SEMESTER 2)</t>
   </si>
   <si>
     <t>Ketarangan</t>
-  </si>
-  <si>
-    <t>WINNIE SAVIRA1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -134,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -180,21 +170,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -243,7 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,39 +232,12 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,13 +253,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,13 +590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
+      <c r="A2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,104 +609,54 @@
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="17" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13">
-        <v>12170001</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14">
-        <v>8000000</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="7">
-        <v>5985000</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
-        <v>12170002</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="14">
-        <v>8000000</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="7">
-        <v>5985000</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <sortState ref="B8:S202">

--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puis\uploads\finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Podomoro University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="90" windowWidth="11040" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$5:$D$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>YAYASAN PENDIDIKAN AGUNG PODOMORO</t>
   </si>
   <si>
+    <t>Rekap Penerimaan &amp; AGING 2018/2019 Ganjil</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -39,6 +41,9 @@
     <t>NAMA</t>
   </si>
   <si>
+    <t>NIM</t>
+  </si>
+  <si>
     <t>JURUSAN</t>
   </si>
   <si>
@@ -60,71 +65,89 @@
     <t>SKS</t>
   </si>
   <si>
-    <t>NIM</t>
-  </si>
-  <si>
-    <t>REKAP PENERIMAAN &amp; AGING 2016/2017 Gasal (SEMESTER 2)</t>
-  </si>
-  <si>
-    <t>Ketarangan</t>
+    <t>DEOGA PRAYUDHA</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Lunas</t>
+  </si>
+  <si>
+    <t>MUHAMMAD KAHFI JUSUP</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Demo User ARC</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Ket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2FE1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -134,55 +157,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,88 +213,102 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="2"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2FE1F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -326,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,7 +623,7 @@
     <col min="6" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="10" width="14.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="41" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,84 +633,177 @@
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12150001</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>8400000</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11140031</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>14000000</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>21180001</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="B8:S202">
-    <sortCondition ref="D8:D202"/>
-    <sortCondition ref="C8:C202"/>
-  </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="10">
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="41" orientation="landscape" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="41" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -685,6 +815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -697,6 +828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/finance/TemplatePembayaran.xlsx
+++ b/uploads/finance/TemplatePembayaran.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Podomoro University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\puis\uploads\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>YAYASAN PENDIDIKAN AGUNG PODOMORO</t>
   </si>
@@ -63,27 +63,6 @@
   </si>
   <si>
     <t>SKS</t>
-  </si>
-  <si>
-    <t>DEOGA PRAYUDHA</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Lunas</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KAHFI JUSUP</t>
-  </si>
-  <si>
-    <t>Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Demo User ARC</t>
-  </si>
-  <si>
-    <t>Architecture</t>
   </si>
   <si>
     <t>Jumlah</t>
@@ -248,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,37 +244,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -363,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,150 +619,76 @@
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
-        <v>12150001</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>8400000</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
-        <v>11140031</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>14000000</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>21180001</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A5:A7"/>
@@ -799,7 +698,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="1" bottom="0" header="0" footer="0"/>
